--- a/biology/Médecine/Régime_Scarsdale/Régime_Scarsdale.xlsx
+++ b/biology/Médecine/Régime_Scarsdale/Régime_Scarsdale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_Scarsdale</t>
+          <t>Régime_Scarsdale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le régime Scarsdale, aussi appelé régime SMD, est un régime amaigrissant mis au point par un cardiologue américain, Herman Tarnower, avec la collaboration de Samm Sinclair Baker vers la fin des années 1970. Ce régime se déroule par étapes de 14 jours et tous les repas sont prévus à l'avance pour la durée totale du régime. Il s'agit d'un régime hypocalorique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régime Scarsdale, aussi appelé régime SMD, est un régime amaigrissant mis au point par un cardiologue américain, Herman Tarnower, avec la collaboration de Samm Sinclair Baker vers la fin des années 1970. Ce régime se déroule par étapes de 14 jours et tous les repas sont prévus à l'avance pour la durée totale du régime. Il s'agit d'un régime hypocalorique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_Scarsdale</t>
+          <t>Régime_Scarsdale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce régime repose sur la limitation de l’apport glucidique. Les menus sont donc composés à partir de 3 grands types d’aliments 
 légumes,
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_Scarsdale</t>
+          <t>Régime_Scarsdale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Restrictions alimentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aliments interdits :
 féculents
